--- a/Data_clean/MCAS/Estados_US/Edos_USA_2021/INDIANA_2021.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2021/INDIANA_2021.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1316"/>
+  <dimension ref="A1:D1310"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -433,7 +433,7 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="6">
@@ -465,7 +465,7 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C8">
@@ -478,7 +478,7 @@
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C9">
@@ -491,7 +491,7 @@
     <row r="10">
       <c r="B10" t="inlineStr">
         <is>
-          <t>San Francisco de los Romo</t>
+          <t>San Francisco De Los Romo</t>
         </is>
       </c>
       <c r="C10">
@@ -568,7 +568,7 @@
         <v>1</v>
       </c>
       <c r="D15">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="16">
@@ -682,7 +682,7 @@
         <v>1</v>
       </c>
       <c r="D23">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="24">
@@ -695,7 +695,7 @@
         <v>1</v>
       </c>
       <c r="D24">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="25">
@@ -708,7 +708,7 @@
         <v>1</v>
       </c>
       <c r="D25">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="26">
@@ -752,7 +752,7 @@
         <v>1</v>
       </c>
       <c r="D28">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="29">
@@ -765,13 +765,13 @@
         <v>1</v>
       </c>
       <c r="D29">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="30">
       <c r="B30" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C30">
@@ -784,14 +784,14 @@
     <row r="31">
       <c r="B31" t="inlineStr">
         <is>
-          <t>Amatenango del Valle</t>
+          <t>Amatenango Del Valle</t>
         </is>
       </c>
       <c r="C31">
         <v>1</v>
       </c>
       <c r="D31">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="32">
@@ -804,7 +804,7 @@
         <v>1</v>
       </c>
       <c r="D32">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="33">
@@ -823,14 +823,14 @@
     <row r="34">
       <c r="B34" t="inlineStr">
         <is>
-          <t>Benemérito de las Américas</t>
+          <t>Benemérito De Las Américas</t>
         </is>
       </c>
       <c r="C34">
         <v>1</v>
       </c>
       <c r="D34">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="35">
@@ -843,7 +843,7 @@
         <v>1</v>
       </c>
       <c r="D35">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="36">
@@ -908,7 +908,7 @@
         <v>1</v>
       </c>
       <c r="D40">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="41">
@@ -921,13 +921,13 @@
         <v>1</v>
       </c>
       <c r="D41">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="42">
       <c r="B42" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C42">
@@ -999,7 +999,7 @@
         <v>1</v>
       </c>
       <c r="D47">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="48">
@@ -1012,7 +1012,7 @@
         <v>1</v>
       </c>
       <c r="D48">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="49">
@@ -1129,7 +1129,7 @@
         <v>1</v>
       </c>
       <c r="D57">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="58">
@@ -1181,20 +1181,20 @@
         <v>1</v>
       </c>
       <c r="D61">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="62">
       <c r="B62" t="inlineStr">
         <is>
-          <t>Marqués de Comillas</t>
+          <t>Marqués De Comillas</t>
         </is>
       </c>
       <c r="C62">
         <v>1</v>
       </c>
       <c r="D62">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="63">
@@ -1246,7 +1246,7 @@
         <v>1</v>
       </c>
       <c r="D66">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="67">
@@ -1259,7 +1259,7 @@
         <v>1</v>
       </c>
       <c r="D67">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="68">
@@ -1272,7 +1272,7 @@
         <v>1</v>
       </c>
       <c r="D68">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="69">
@@ -1317,14 +1317,14 @@
     <row r="72">
       <c r="B72" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C72">
         <v>1</v>
       </c>
       <c r="D72">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="73">
@@ -1363,7 +1363,7 @@
         <v>1</v>
       </c>
       <c r="D75">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="76">
@@ -1389,7 +1389,7 @@
         <v>1</v>
       </c>
       <c r="D77">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="78">
@@ -1519,7 +1519,7 @@
         <v>1</v>
       </c>
       <c r="D87">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="88">
@@ -1532,7 +1532,7 @@
         <v>1</v>
       </c>
       <c r="D88">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="89">
@@ -1589,7 +1589,7 @@
         <v>1</v>
       </c>
       <c r="D92">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="93">
@@ -1602,7 +1602,7 @@
         <v>1</v>
       </c>
       <c r="D93">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="94">
@@ -1641,7 +1641,7 @@
         <v>1</v>
       </c>
       <c r="D96">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="97">
@@ -1667,7 +1667,7 @@
         <v>1</v>
       </c>
       <c r="D98">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="99">
@@ -1712,7 +1712,7 @@
     <row r="102">
       <c r="B102" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C102">
@@ -1758,7 +1758,7 @@
         <v>1</v>
       </c>
       <c r="D105">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="106">
@@ -1784,7 +1784,7 @@
         <v>1</v>
       </c>
       <c r="D107">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="108">
@@ -1797,7 +1797,7 @@
         <v>1</v>
       </c>
       <c r="D108">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="109">
@@ -1836,7 +1836,7 @@
         <v>1</v>
       </c>
       <c r="D111">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="112">
@@ -1849,7 +1849,7 @@
         <v>1</v>
       </c>
       <c r="D112">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="113">
@@ -1862,7 +1862,7 @@
         <v>1</v>
       </c>
       <c r="D113">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="114">
@@ -1875,7 +1875,7 @@
         <v>1</v>
       </c>
       <c r="D114">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="115">
@@ -1888,7 +1888,7 @@
         <v>1</v>
       </c>
       <c r="D115">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="116">
@@ -1945,7 +1945,7 @@
         <v>1</v>
       </c>
       <c r="D119">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="120">
@@ -1958,7 +1958,7 @@
         <v>1</v>
       </c>
       <c r="D120">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="121">
@@ -1971,7 +1971,7 @@
         <v>1</v>
       </c>
       <c r="D121">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="122">
@@ -1997,7 +1997,7 @@
         <v>1</v>
       </c>
       <c r="D123">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="124">
@@ -2094,7 +2094,7 @@
     <row r="131">
       <c r="B131" t="inlineStr">
         <is>
-          <t>San Juan de Sabinas</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C131">
@@ -2171,7 +2171,7 @@
         <v>1</v>
       </c>
       <c r="D136">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="137">
@@ -2242,7 +2242,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -2299,7 +2299,7 @@
     <row r="146">
       <c r="B146" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C146">
@@ -2486,7 +2486,7 @@
     <row r="160">
       <c r="B160" t="inlineStr">
         <is>
-          <t>Coneto de Comonfort</t>
+          <t>Coneto De Comonfort</t>
         </is>
       </c>
       <c r="C160">
@@ -2584,7 +2584,7 @@
         <v>1</v>
       </c>
       <c r="D167">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="168">
@@ -2623,7 +2623,7 @@
         <v>1</v>
       </c>
       <c r="D170">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="171">
@@ -2720,7 +2720,7 @@
     <row r="178">
       <c r="B178" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C178">
@@ -2824,12 +2824,12 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C186">
@@ -2849,7 +2849,7 @@
         <v>1</v>
       </c>
       <c r="D187">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="188">
@@ -2868,7 +2868,7 @@
     <row r="189">
       <c r="B189" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C189">
@@ -2881,7 +2881,7 @@
     <row r="190">
       <c r="B190" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C190">
@@ -2901,7 +2901,7 @@
         <v>1</v>
       </c>
       <c r="D191">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="192">
@@ -2933,7 +2933,7 @@
     <row r="194">
       <c r="B194" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C194">
@@ -3018,7 +3018,7 @@
         <v>1</v>
       </c>
       <c r="D200">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="201">
@@ -3031,7 +3031,7 @@
         <v>1</v>
       </c>
       <c r="D201">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="202">
@@ -3050,7 +3050,7 @@
     <row r="203">
       <c r="B203" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C203">
@@ -3128,7 +3128,7 @@
     <row r="209">
       <c r="B209" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C209">
@@ -3161,7 +3161,7 @@
         <v>1</v>
       </c>
       <c r="D211">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="212">
@@ -3174,7 +3174,7 @@
         <v>1</v>
       </c>
       <c r="D212">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="213">
@@ -3193,7 +3193,7 @@
     <row r="214">
       <c r="B214" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C214">
@@ -3206,14 +3206,14 @@
     <row r="215">
       <c r="B215" t="inlineStr">
         <is>
-          <t>Ixtapan del Oro</t>
+          <t>Ixtapan Del Oro</t>
         </is>
       </c>
       <c r="C215">
         <v>1</v>
       </c>
       <c r="D215">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="216">
@@ -3252,7 +3252,7 @@
         <v>1</v>
       </c>
       <c r="D218">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="219">
@@ -3265,7 +3265,7 @@
         <v>1</v>
       </c>
       <c r="D219">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="220">
@@ -3278,7 +3278,7 @@
         <v>1</v>
       </c>
       <c r="D220">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="221">
@@ -3291,7 +3291,7 @@
         <v>1</v>
       </c>
       <c r="D221">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="222">
@@ -3317,7 +3317,7 @@
         <v>1</v>
       </c>
       <c r="D223">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="224">
@@ -3330,7 +3330,7 @@
         <v>1</v>
       </c>
       <c r="D224">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="225">
@@ -3356,13 +3356,13 @@
         <v>1</v>
       </c>
       <c r="D226">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="227">
       <c r="B227" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C227">
@@ -3408,7 +3408,7 @@
         <v>1</v>
       </c>
       <c r="D230">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="231">
@@ -3434,7 +3434,7 @@
         <v>1</v>
       </c>
       <c r="D232">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="233">
@@ -3460,13 +3460,13 @@
         <v>1</v>
       </c>
       <c r="D234">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="235">
       <c r="B235" t="inlineStr">
         <is>
-          <t>San Antonio la Isla</t>
+          <t>San Antonio La Isla</t>
         </is>
       </c>
       <c r="C235">
@@ -3479,7 +3479,7 @@
     <row r="236">
       <c r="B236" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C236">
@@ -3499,20 +3499,20 @@
         <v>1</v>
       </c>
       <c r="D237">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="238">
       <c r="B238" t="inlineStr">
         <is>
-          <t>San Simón de Guerrero</t>
+          <t>San Simón De Guerrero</t>
         </is>
       </c>
       <c r="C238">
         <v>1</v>
       </c>
       <c r="D238">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="239">
@@ -3577,7 +3577,7 @@
         <v>1</v>
       </c>
       <c r="D243">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="244">
@@ -3635,7 +3635,7 @@
     <row r="248">
       <c r="B248" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C248">
@@ -3726,7 +3726,7 @@
     <row r="255">
       <c r="B255" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C255">
@@ -3778,7 +3778,7 @@
     <row r="259">
       <c r="B259" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C259">
@@ -3791,7 +3791,7 @@
     <row r="260">
       <c r="B260" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C260">
@@ -3804,7 +3804,7 @@
     <row r="261">
       <c r="B261" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C261">
@@ -3817,7 +3817,7 @@
     <row r="262">
       <c r="B262" t="inlineStr">
         <is>
-          <t>Villa del Carbón</t>
+          <t>Villa Del Carbón</t>
         </is>
       </c>
       <c r="C262">
@@ -3837,7 +3837,7 @@
         <v>1</v>
       </c>
       <c r="D263">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="264">
@@ -3863,7 +3863,7 @@
         <v>1</v>
       </c>
       <c r="D265">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="266">
@@ -3902,7 +3902,7 @@
         <v>10</v>
       </c>
       <c r="D268">
-        <v>0.0009062896501721951</v>
+        <v>0.0009062896501721952</v>
       </c>
     </row>
     <row r="269">
@@ -3915,7 +3915,7 @@
         <v>1</v>
       </c>
       <c r="D269">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="270">
@@ -3978,7 +3978,7 @@
     <row r="274">
       <c r="B274" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C274">
@@ -3991,14 +3991,14 @@
     <row r="275">
       <c r="B275" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C275">
         <v>1</v>
       </c>
       <c r="D275">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="276">
@@ -4069,7 +4069,7 @@
     <row r="281">
       <c r="B281" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C281">
@@ -4121,7 +4121,7 @@
     <row r="285">
       <c r="B285" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C285">
@@ -4225,7 +4225,7 @@
     <row r="293">
       <c r="B293" t="inlineStr">
         <is>
-          <t>Purísima del Rincón</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C293">
@@ -4277,7 +4277,7 @@
     <row r="297">
       <c r="B297" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C297">
@@ -4303,7 +4303,7 @@
     <row r="299">
       <c r="B299" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C299">
@@ -4329,7 +4329,7 @@
     <row r="301">
       <c r="B301" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C301">
@@ -4342,7 +4342,7 @@
     <row r="302">
       <c r="B302" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C302">
@@ -4368,7 +4368,7 @@
     <row r="304">
       <c r="B304" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C304">
@@ -4414,7 +4414,7 @@
         <v>1</v>
       </c>
       <c r="D307">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="308">
@@ -4433,7 +4433,7 @@
     <row r="309">
       <c r="B309" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C309">
@@ -4453,7 +4453,7 @@
         <v>1</v>
       </c>
       <c r="D310">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="311">
@@ -4490,7 +4490,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C313">
@@ -4503,7 +4503,7 @@
     <row r="314">
       <c r="B314" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C314">
@@ -4516,14 +4516,14 @@
     <row r="315">
       <c r="B315" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C315">
         <v>10</v>
       </c>
       <c r="D315">
-        <v>0.0009062896501721951</v>
+        <v>0.0009062896501721952</v>
       </c>
     </row>
     <row r="316">
@@ -4536,7 +4536,7 @@
         <v>10</v>
       </c>
       <c r="D316">
-        <v>0.0009062896501721951</v>
+        <v>0.0009062896501721952</v>
       </c>
     </row>
     <row r="317">
@@ -4555,27 +4555,27 @@
     <row r="318">
       <c r="B318" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C318">
         <v>1</v>
       </c>
       <c r="D318">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="319">
       <c r="B319" t="inlineStr">
         <is>
-          <t>Atlamajalcingo del Monte</t>
+          <t>Atlamajalcingo Del Monte</t>
         </is>
       </c>
       <c r="C319">
         <v>1</v>
       </c>
       <c r="D319">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="320">
@@ -4588,13 +4588,13 @@
         <v>1</v>
       </c>
       <c r="D320">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="321">
       <c r="B321" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C321">
@@ -4607,7 +4607,7 @@
     <row r="322">
       <c r="B322" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C322">
@@ -4646,7 +4646,7 @@
     <row r="325">
       <c r="B325" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C325">
@@ -4659,7 +4659,7 @@
     <row r="326">
       <c r="B326" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C326">
@@ -4672,14 +4672,14 @@
     <row r="327">
       <c r="B327" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C327">
         <v>1</v>
       </c>
       <c r="D327">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="328">
@@ -4718,13 +4718,13 @@
         <v>1</v>
       </c>
       <c r="D330">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="331">
       <c r="B331" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C331">
@@ -4737,14 +4737,14 @@
     <row r="332">
       <c r="B332" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C332">
         <v>10</v>
       </c>
       <c r="D332">
-        <v>0.0009062896501721951</v>
+        <v>0.0009062896501721952</v>
       </c>
     </row>
     <row r="333">
@@ -4757,7 +4757,7 @@
         <v>1</v>
       </c>
       <c r="D333">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="334">
@@ -4776,7 +4776,7 @@
     <row r="335">
       <c r="B335" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C335">
@@ -4789,7 +4789,7 @@
     <row r="336">
       <c r="B336" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C336">
@@ -4861,13 +4861,13 @@
         <v>1</v>
       </c>
       <c r="D341">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="342">
       <c r="B342" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C342">
@@ -4880,14 +4880,14 @@
     <row r="343">
       <c r="B343" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C343">
         <v>10</v>
       </c>
       <c r="D343">
-        <v>0.0009062896501721951</v>
+        <v>0.0009062896501721952</v>
       </c>
     </row>
     <row r="344">
@@ -4906,7 +4906,7 @@
     <row r="345">
       <c r="B345" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C345">
@@ -5030,7 +5030,7 @@
         <v>1</v>
       </c>
       <c r="D354">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="355">
@@ -5101,7 +5101,7 @@
     <row r="360">
       <c r="B360" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C360">
@@ -5127,7 +5127,7 @@
     <row r="362">
       <c r="B362" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C362">
@@ -5153,7 +5153,7 @@
     <row r="364">
       <c r="B364" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C364">
@@ -5179,7 +5179,7 @@
     <row r="366">
       <c r="B366" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C366">
@@ -5212,13 +5212,13 @@
         <v>1</v>
       </c>
       <c r="D368">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="369">
       <c r="B369" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C369">
@@ -5251,7 +5251,7 @@
         <v>1</v>
       </c>
       <c r="D371">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="372">
@@ -5277,7 +5277,7 @@
         <v>1</v>
       </c>
       <c r="D373">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="374">
@@ -5290,7 +5290,7 @@
         <v>1</v>
       </c>
       <c r="D374">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="375">
@@ -5353,14 +5353,14 @@
     <row r="379">
       <c r="B379" t="inlineStr">
         <is>
-          <t>Agua Blanca de Iturbide</t>
+          <t>Agua Blanca De Iturbide</t>
         </is>
       </c>
       <c r="C379">
         <v>1</v>
       </c>
       <c r="D379">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="380">
@@ -5373,7 +5373,7 @@
         <v>1</v>
       </c>
       <c r="D380">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="381">
@@ -5405,7 +5405,7 @@
     <row r="383">
       <c r="B383" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C383">
@@ -5470,7 +5470,7 @@
     <row r="388">
       <c r="B388" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C388">
@@ -5490,7 +5490,7 @@
         <v>1</v>
       </c>
       <c r="D389">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="390">
@@ -5503,7 +5503,7 @@
         <v>1</v>
       </c>
       <c r="D390">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="391">
@@ -5529,7 +5529,7 @@
         <v>1</v>
       </c>
       <c r="D392">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="393">
@@ -5542,13 +5542,13 @@
         <v>1</v>
       </c>
       <c r="D393">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="394">
       <c r="B394" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C394">
@@ -5574,7 +5574,7 @@
     <row r="396">
       <c r="B396" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C396">
@@ -5594,7 +5594,7 @@
         <v>10</v>
       </c>
       <c r="D397">
-        <v>0.0009062896501721951</v>
+        <v>0.0009062896501721952</v>
       </c>
     </row>
     <row r="398">
@@ -5613,14 +5613,14 @@
     <row r="399">
       <c r="B399" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C399">
         <v>1</v>
       </c>
       <c r="D399">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="400">
@@ -5659,7 +5659,7 @@
         <v>1</v>
       </c>
       <c r="D402">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="403">
@@ -5691,7 +5691,7 @@
     <row r="405">
       <c r="B405" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C405">
@@ -5704,7 +5704,7 @@
     <row r="406">
       <c r="B406" t="inlineStr">
         <is>
-          <t>Molango de Escamilla</t>
+          <t>Molango De Escamilla</t>
         </is>
       </c>
       <c r="C406">
@@ -5730,7 +5730,7 @@
     <row r="408">
       <c r="B408" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C408">
@@ -5769,14 +5769,14 @@
     <row r="411">
       <c r="B411" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C411">
         <v>1</v>
       </c>
       <c r="D411">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="412">
@@ -5789,7 +5789,7 @@
         <v>1</v>
       </c>
       <c r="D412">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="413">
@@ -5815,13 +5815,13 @@
         <v>1</v>
       </c>
       <c r="D414">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="415">
       <c r="B415" t="inlineStr">
         <is>
-          <t>Santiago de Anaya</t>
+          <t>Santiago De Anaya</t>
         </is>
       </c>
       <c r="C415">
@@ -5873,14 +5873,14 @@
     <row r="419">
       <c r="B419" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C419">
         <v>1</v>
       </c>
       <c r="D419">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="420">
@@ -5899,14 +5899,14 @@
     <row r="421">
       <c r="B421" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C421">
         <v>1</v>
       </c>
       <c r="D421">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="422">
@@ -5932,13 +5932,13 @@
         <v>1</v>
       </c>
       <c r="D423">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="424">
       <c r="B424" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C424">
@@ -5951,7 +5951,7 @@
     <row r="425">
       <c r="B425" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C425">
@@ -5964,14 +5964,14 @@
     <row r="426">
       <c r="B426" t="inlineStr">
         <is>
-          <t>Villa de Tezontepec</t>
+          <t>Villa De Tezontepec</t>
         </is>
       </c>
       <c r="C426">
         <v>1</v>
       </c>
       <c r="D426">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="427">
@@ -5984,13 +5984,13 @@
         <v>1</v>
       </c>
       <c r="D427">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="428">
       <c r="B428" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C428">
@@ -6047,7 +6047,7 @@
     <row r="432">
       <c r="B432" t="inlineStr">
         <is>
-          <t>Acatlán de Juárez</t>
+          <t>Acatlán De Juárez</t>
         </is>
       </c>
       <c r="C432">
@@ -6060,14 +6060,14 @@
     <row r="433">
       <c r="B433" t="inlineStr">
         <is>
-          <t>Ahualulco de Mercado</t>
+          <t>Ahualulco De Mercado</t>
         </is>
       </c>
       <c r="C433">
         <v>1</v>
       </c>
       <c r="D433">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="434">
@@ -6080,7 +6080,7 @@
         <v>1</v>
       </c>
       <c r="D434">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="435">
@@ -6112,7 +6112,7 @@
     <row r="437">
       <c r="B437" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C437">
@@ -6125,7 +6125,7 @@
     <row r="438">
       <c r="B438" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C438">
@@ -6158,7 +6158,7 @@
         <v>1</v>
       </c>
       <c r="D440">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="441">
@@ -6229,14 +6229,14 @@
     <row r="446">
       <c r="B446" t="inlineStr">
         <is>
-          <t>Concepción de Buenos Aires</t>
+          <t>Concepción De Buenos Aires</t>
         </is>
       </c>
       <c r="C446">
         <v>1</v>
       </c>
       <c r="D446">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="447">
@@ -6288,7 +6288,7 @@
         <v>1</v>
       </c>
       <c r="D450">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="451">
@@ -6301,13 +6301,13 @@
         <v>1</v>
       </c>
       <c r="D451">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="452">
       <c r="B452" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C452">
@@ -6333,7 +6333,7 @@
     <row r="454">
       <c r="B454" t="inlineStr">
         <is>
-          <t>Huejuquilla el Alto</t>
+          <t>Huejuquilla El Alto</t>
         </is>
       </c>
       <c r="C454">
@@ -6346,7 +6346,7 @@
     <row r="455">
       <c r="B455" t="inlineStr">
         <is>
-          <t>Ixtlahuacán del Río</t>
+          <t>Ixtlahuacán Del Río</t>
         </is>
       </c>
       <c r="C455">
@@ -6398,7 +6398,7 @@
     <row r="459">
       <c r="B459" t="inlineStr">
         <is>
-          <t>Jilotlán de los Dolores</t>
+          <t>Jilotlán De Los Dolores</t>
         </is>
       </c>
       <c r="C459">
@@ -6437,7 +6437,7 @@
     <row r="462">
       <c r="B462" t="inlineStr">
         <is>
-          <t>La Manzanilla de la Paz</t>
+          <t>La Manzanilla De La Paz</t>
         </is>
       </c>
       <c r="C462">
@@ -6450,14 +6450,14 @@
     <row r="463">
       <c r="B463" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C463">
         <v>101</v>
       </c>
       <c r="D463">
-        <v>0.009153525466739169</v>
+        <v>0.009153525466739167</v>
       </c>
     </row>
     <row r="464">
@@ -6483,7 +6483,7 @@
         <v>1</v>
       </c>
       <c r="D465">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="466">
@@ -6528,7 +6528,7 @@
     <row r="469">
       <c r="B469" t="inlineStr">
         <is>
-          <t>Ojuelos de Jalisco</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C469">
@@ -6548,7 +6548,7 @@
         <v>1</v>
       </c>
       <c r="D470">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="471">
@@ -6580,20 +6580,20 @@
     <row r="473">
       <c r="B473" t="inlineStr">
         <is>
-          <t>San Diego de Alejandría</t>
+          <t>San Diego De Alejandría</t>
         </is>
       </c>
       <c r="C473">
         <v>1</v>
       </c>
       <c r="D473">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="474">
       <c r="B474" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C474">
@@ -6606,14 +6606,14 @@
     <row r="475">
       <c r="B475" t="inlineStr">
         <is>
-          <t>San Juanito de Escobedo</t>
+          <t>San Juanito De Escobedo</t>
         </is>
       </c>
       <c r="C475">
         <v>1</v>
       </c>
       <c r="D475">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="476">
@@ -6645,40 +6645,40 @@
     <row r="478">
       <c r="B478" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C478">
         <v>1</v>
       </c>
       <c r="D478">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="479">
       <c r="B479" t="inlineStr">
         <is>
-          <t>San Sebastián del Oeste</t>
+          <t>San Sebastián Del Oeste</t>
         </is>
       </c>
       <c r="C479">
         <v>1</v>
       </c>
       <c r="D479">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="480">
       <c r="B480" t="inlineStr">
         <is>
-          <t>Santa María de los Ángeles</t>
+          <t>Santa María De Los Ángeles</t>
         </is>
       </c>
       <c r="C480">
         <v>1</v>
       </c>
       <c r="D480">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="481">
@@ -6691,7 +6691,7 @@
         <v>1</v>
       </c>
       <c r="D481">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="482">
@@ -6710,7 +6710,7 @@
     <row r="483">
       <c r="B483" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C483">
@@ -6730,7 +6730,7 @@
         <v>1</v>
       </c>
       <c r="D484">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="485">
@@ -6762,27 +6762,27 @@
     <row r="487">
       <c r="B487" t="inlineStr">
         <is>
-          <t>Teocuitatlán de Corona</t>
+          <t>Teocuitatlán De Corona</t>
         </is>
       </c>
       <c r="C487">
         <v>1</v>
       </c>
       <c r="D487">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="488">
       <c r="B488" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C488">
         <v>10</v>
       </c>
       <c r="D488">
-        <v>0.0009062896501721951</v>
+        <v>0.0009062896501721952</v>
       </c>
     </row>
     <row r="489">
@@ -6795,13 +6795,13 @@
         <v>1</v>
       </c>
       <c r="D489">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="490">
       <c r="B490" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C490">
@@ -6814,7 +6814,7 @@
     <row r="491">
       <c r="B491" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C491">
@@ -6873,13 +6873,13 @@
         <v>1</v>
       </c>
       <c r="D495">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="496">
       <c r="B496" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C496">
@@ -6892,7 +6892,7 @@
     <row r="497">
       <c r="B497" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C497">
@@ -6905,7 +6905,7 @@
     <row r="498">
       <c r="B498" t="inlineStr">
         <is>
-          <t>Valle de Juárez</t>
+          <t>Valle De Juárez</t>
         </is>
       </c>
       <c r="C498">
@@ -6951,13 +6951,13 @@
         <v>1</v>
       </c>
       <c r="D501">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="502">
       <c r="B502" t="inlineStr">
         <is>
-          <t>Yahualica de González Gallo</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C502">
@@ -6970,14 +6970,14 @@
     <row r="503">
       <c r="B503" t="inlineStr">
         <is>
-          <t>Zacoalco de Torres</t>
+          <t>Zacoalco De Torres</t>
         </is>
       </c>
       <c r="C503">
         <v>1</v>
       </c>
       <c r="D503">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="504">
@@ -6996,7 +6996,7 @@
     <row r="505">
       <c r="B505" t="inlineStr">
         <is>
-          <t>Zapotitlán de Vadillo</t>
+          <t>Zapotitlán De Vadillo</t>
         </is>
       </c>
       <c r="C505">
@@ -7009,7 +7009,7 @@
     <row r="506">
       <c r="B506" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C506">
@@ -7112,7 +7112,7 @@
         <v>1</v>
       </c>
       <c r="D513">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="514">
@@ -7216,7 +7216,7 @@
         <v>1</v>
       </c>
       <c r="D521">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="522">
@@ -7268,7 +7268,7 @@
         <v>1</v>
       </c>
       <c r="D525">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="526">
@@ -7281,7 +7281,7 @@
         <v>10</v>
       </c>
       <c r="D526">
-        <v>0.0009062896501721951</v>
+        <v>0.0009062896501721952</v>
       </c>
     </row>
     <row r="527">
@@ -7333,7 +7333,7 @@
         <v>1</v>
       </c>
       <c r="D530">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="531">
@@ -7346,7 +7346,7 @@
         <v>1</v>
       </c>
       <c r="D531">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="532">
@@ -7385,7 +7385,7 @@
         <v>1</v>
       </c>
       <c r="D534">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="535">
@@ -7398,7 +7398,7 @@
         <v>1</v>
       </c>
       <c r="D535">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="536">
@@ -7437,7 +7437,7 @@
         <v>1</v>
       </c>
       <c r="D538">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="539">
@@ -7476,7 +7476,7 @@
         <v>1</v>
       </c>
       <c r="D541">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="542">
@@ -7502,7 +7502,7 @@
         <v>1</v>
       </c>
       <c r="D543">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="544">
@@ -7541,7 +7541,7 @@
         <v>1</v>
       </c>
       <c r="D546">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="547">
@@ -7554,7 +7554,7 @@
         <v>1</v>
       </c>
       <c r="D547">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="548">
@@ -7879,7 +7879,7 @@
         <v>1</v>
       </c>
       <c r="D572">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="573">
@@ -7983,7 +7983,7 @@
         <v>10</v>
       </c>
       <c r="D580">
-        <v>0.0009062896501721951</v>
+        <v>0.0009062896501721952</v>
       </c>
     </row>
     <row r="581">
@@ -8035,7 +8035,7 @@
         <v>1</v>
       </c>
       <c r="D584">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="585">
@@ -8087,7 +8087,7 @@
         <v>1</v>
       </c>
       <c r="D588">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="589">
@@ -8106,7 +8106,7 @@
     <row r="590">
       <c r="B590" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C590">
@@ -8139,7 +8139,7 @@
         <v>1</v>
       </c>
       <c r="D592">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="593">
@@ -8152,7 +8152,7 @@
         <v>10</v>
       </c>
       <c r="D593">
-        <v>0.0009062896501721951</v>
+        <v>0.0009062896501721952</v>
       </c>
     </row>
     <row r="594">
@@ -8282,7 +8282,7 @@
         <v>1</v>
       </c>
       <c r="D603">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="604">
@@ -8384,7 +8384,7 @@
     <row r="611">
       <c r="B611" t="inlineStr">
         <is>
-          <t>Coatlán del Río</t>
+          <t>Coatlán Del Río</t>
         </is>
       </c>
       <c r="C611">
@@ -8443,7 +8443,7 @@
         <v>1</v>
       </c>
       <c r="D615">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="616">
@@ -8488,14 +8488,14 @@
     <row r="619">
       <c r="B619" t="inlineStr">
         <is>
-          <t>Jonacatepec de Leandro Valle</t>
+          <t>Jonacatepec De Leandro Valle</t>
         </is>
       </c>
       <c r="C619">
         <v>1</v>
       </c>
       <c r="D619">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="620">
@@ -8527,7 +8527,7 @@
     <row r="622">
       <c r="B622" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C622">
@@ -8592,14 +8592,14 @@
     <row r="627">
       <c r="B627" t="inlineStr">
         <is>
-          <t>Tetela del Volcán</t>
+          <t>Tetela Del Volcán</t>
         </is>
       </c>
       <c r="C627">
         <v>1</v>
       </c>
       <c r="D627">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="628">
@@ -8612,13 +8612,13 @@
         <v>1</v>
       </c>
       <c r="D628">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="629">
       <c r="B629" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C629">
@@ -8638,7 +8638,7 @@
         <v>1</v>
       </c>
       <c r="D630">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="631">
@@ -8696,14 +8696,14 @@
     <row r="635">
       <c r="B635" t="inlineStr">
         <is>
-          <t>Zacualpan de Amilpas</t>
+          <t>Zacualpan De Amilpas</t>
         </is>
       </c>
       <c r="C635">
         <v>1</v>
       </c>
       <c r="D635">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="636">
@@ -8747,13 +8747,13 @@
         <v>1</v>
       </c>
       <c r="D638">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="639">
       <c r="B639" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C639">
@@ -8773,7 +8773,7 @@
         <v>1</v>
       </c>
       <c r="D640">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="641">
@@ -8799,7 +8799,7 @@
         <v>1</v>
       </c>
       <c r="D642">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="643">
@@ -8812,7 +8812,7 @@
         <v>1</v>
       </c>
       <c r="D643">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="644">
@@ -8825,20 +8825,20 @@
         <v>1</v>
       </c>
       <c r="D644">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="645">
       <c r="B645" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C645">
         <v>1</v>
       </c>
       <c r="D645">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="646">
@@ -8934,7 +8934,7 @@
         <v>1</v>
       </c>
       <c r="D652">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="653">
@@ -8960,7 +8960,7 @@
         <v>1</v>
       </c>
       <c r="D654">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="655">
@@ -9005,7 +9005,7 @@
     <row r="658">
       <c r="B658" t="inlineStr">
         <is>
-          <t>Mier y Noriega</t>
+          <t>Mier Y Noriega</t>
         </is>
       </c>
       <c r="C658">
@@ -9044,7 +9044,7 @@
     <row r="661">
       <c r="B661" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C661">
@@ -9088,14 +9088,14 @@
       </c>
       <c r="B664" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C664">
         <v>10</v>
       </c>
       <c r="D664">
-        <v>0.0009062896501721951</v>
+        <v>0.0009062896501721952</v>
       </c>
     </row>
     <row r="665">
@@ -9108,7 +9108,7 @@
         <v>1</v>
       </c>
       <c r="D665">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="666">
@@ -9140,7 +9140,7 @@
     <row r="668">
       <c r="B668" t="inlineStr">
         <is>
-          <t>Chalcatongo de Hidalgo</t>
+          <t>Chalcatongo De Hidalgo</t>
         </is>
       </c>
       <c r="C668">
@@ -9153,14 +9153,14 @@
     <row r="669">
       <c r="B669" t="inlineStr">
         <is>
-          <t>Ciénega de Zimatlán</t>
+          <t>Ciénega De Zimatlán</t>
         </is>
       </c>
       <c r="C669">
         <v>1</v>
       </c>
       <c r="D669">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="670">
@@ -9179,7 +9179,7 @@
     <row r="671">
       <c r="B671" t="inlineStr">
         <is>
-          <t>Coicoyán de las Flores</t>
+          <t>Coicoyán De Las Flores</t>
         </is>
       </c>
       <c r="C671">
@@ -9199,13 +9199,13 @@
         <v>1</v>
       </c>
       <c r="D672">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="673">
       <c r="B673" t="inlineStr">
         <is>
-          <t>Constancia del Rosario</t>
+          <t>Constancia Del Rosario</t>
         </is>
       </c>
       <c r="C673">
@@ -9231,20 +9231,20 @@
     <row r="675">
       <c r="B675" t="inlineStr">
         <is>
-          <t>Guevea de Humboldt</t>
+          <t>Guevea De Humboldt</t>
         </is>
       </c>
       <c r="C675">
         <v>1</v>
       </c>
       <c r="D675">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="676">
       <c r="B676" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C676">
@@ -9257,7 +9257,7 @@
     <row r="677">
       <c r="B677" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C677">
@@ -9270,7 +9270,7 @@
     <row r="678">
       <c r="B678" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C678">
@@ -9290,13 +9290,13 @@
         <v>1</v>
       </c>
       <c r="D679">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="680">
       <c r="B680" t="inlineStr">
         <is>
-          <t>Huautla de Jiménez</t>
+          <t>Huautla De Jiménez</t>
         </is>
       </c>
       <c r="C680">
@@ -9309,7 +9309,7 @@
     <row r="681">
       <c r="B681" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C681">
@@ -9322,7 +9322,7 @@
     <row r="682">
       <c r="B682" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C682">
@@ -9361,7 +9361,7 @@
     <row r="685">
       <c r="B685" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C685">
@@ -9374,20 +9374,20 @@
     <row r="686">
       <c r="B686" t="inlineStr">
         <is>
-          <t>Nejapa de Madero</t>
+          <t>Nejapa De Madero</t>
         </is>
       </c>
       <c r="C686">
         <v>1</v>
       </c>
       <c r="D686">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="687">
       <c r="B687" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C687">
@@ -9400,14 +9400,14 @@
     <row r="688">
       <c r="B688" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C688">
         <v>10</v>
       </c>
       <c r="D688">
-        <v>0.0009062896501721951</v>
+        <v>0.0009062896501721952</v>
       </c>
     </row>
     <row r="689">
@@ -9420,13 +9420,13 @@
         <v>1</v>
       </c>
       <c r="D689">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="690">
       <c r="B690" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C690">
@@ -9439,7 +9439,7 @@
     <row r="691">
       <c r="B691" t="inlineStr">
         <is>
-          <t>Rojas de Cuauhtémoc</t>
+          <t>Rojas De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C691">
@@ -9472,7 +9472,7 @@
         <v>1</v>
       </c>
       <c r="D693">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="694">
@@ -9485,7 +9485,7 @@
         <v>1</v>
       </c>
       <c r="D694">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="695">
@@ -9511,7 +9511,7 @@
         <v>1</v>
       </c>
       <c r="D696">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="697">
@@ -9524,7 +9524,7 @@
         <v>1</v>
       </c>
       <c r="D697">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="698">
@@ -9537,7 +9537,7 @@
         <v>1</v>
       </c>
       <c r="D698">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="699">
@@ -9550,7 +9550,7 @@
         <v>1</v>
       </c>
       <c r="D699">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="700">
@@ -9563,7 +9563,7 @@
         <v>1</v>
       </c>
       <c r="D700">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="701">
@@ -9576,13 +9576,13 @@
         <v>1</v>
       </c>
       <c r="D701">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="702">
       <c r="B702" t="inlineStr">
         <is>
-          <t>San Antonino el Alto</t>
+          <t>San Antonino El Alto</t>
         </is>
       </c>
       <c r="C702">
@@ -9608,14 +9608,14 @@
     <row r="704">
       <c r="B704" t="inlineStr">
         <is>
-          <t>San Antonio de la Cal</t>
+          <t>San Antonio De La Cal</t>
         </is>
       </c>
       <c r="C704">
         <v>1</v>
       </c>
       <c r="D704">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="705">
@@ -9667,7 +9667,7 @@
         <v>1</v>
       </c>
       <c r="D708">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="709">
@@ -9686,7 +9686,7 @@
     <row r="710">
       <c r="B710" t="inlineStr">
         <is>
-          <t>San Felipe Jalapa de Díaz</t>
+          <t>San Felipe Jalapa De Díaz</t>
         </is>
       </c>
       <c r="C710">
@@ -9706,7 +9706,7 @@
         <v>1</v>
       </c>
       <c r="D711">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="712">
@@ -9719,20 +9719,20 @@
         <v>1</v>
       </c>
       <c r="D712">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="713">
       <c r="B713" t="inlineStr">
         <is>
-          <t>San Francisco del Mar</t>
+          <t>San Francisco Del Mar</t>
         </is>
       </c>
       <c r="C713">
         <v>1</v>
       </c>
       <c r="D713">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="714">
@@ -9745,7 +9745,7 @@
         <v>1</v>
       </c>
       <c r="D714">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="715">
@@ -9758,7 +9758,7 @@
         <v>1</v>
       </c>
       <c r="D715">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="716">
@@ -9771,7 +9771,7 @@
         <v>1</v>
       </c>
       <c r="D716">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="717">
@@ -9784,7 +9784,7 @@
         <v>1</v>
       </c>
       <c r="D717">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="718">
@@ -9797,7 +9797,7 @@
         <v>1</v>
       </c>
       <c r="D718">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="719">
@@ -9823,7 +9823,7 @@
         <v>1</v>
       </c>
       <c r="D720">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="721">
@@ -9836,7 +9836,7 @@
         <v>1</v>
       </c>
       <c r="D721">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="722">
@@ -9849,7 +9849,7 @@
         <v>1</v>
       </c>
       <c r="D722">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="723">
@@ -9862,7 +9862,7 @@
         <v>1</v>
       </c>
       <c r="D723">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="724">
@@ -9875,7 +9875,7 @@
         <v>1</v>
       </c>
       <c r="D724">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="725">
@@ -9888,7 +9888,7 @@
         <v>1</v>
       </c>
       <c r="D725">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="726">
@@ -9914,7 +9914,7 @@
         <v>1</v>
       </c>
       <c r="D727">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="728">
@@ -9940,7 +9940,7 @@
         <v>1</v>
       </c>
       <c r="D729">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="730">
@@ -9953,7 +9953,7 @@
         <v>1</v>
       </c>
       <c r="D730">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="731">
@@ -9966,7 +9966,7 @@
         <v>1</v>
       </c>
       <c r="D731">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="732">
@@ -10024,14 +10024,14 @@
     <row r="736">
       <c r="B736" t="inlineStr">
         <is>
-          <t>San Juan del Estado</t>
+          <t>San Juan Del Estado</t>
         </is>
       </c>
       <c r="C736">
         <v>1</v>
       </c>
       <c r="D736">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="737">
@@ -10044,7 +10044,7 @@
         <v>10</v>
       </c>
       <c r="D737">
-        <v>0.0009062896501721951</v>
+        <v>0.0009062896501721952</v>
       </c>
     </row>
     <row r="738">
@@ -10057,7 +10057,7 @@
         <v>1</v>
       </c>
       <c r="D738">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="739">
@@ -10070,7 +10070,7 @@
         <v>1</v>
       </c>
       <c r="D739">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="740">
@@ -10148,7 +10148,7 @@
         <v>1</v>
       </c>
       <c r="D745">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="746">
@@ -10161,7 +10161,7 @@
         <v>1</v>
       </c>
       <c r="D746">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="747">
@@ -10174,7 +10174,7 @@
         <v>1</v>
       </c>
       <c r="D747">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="748">
@@ -10200,7 +10200,7 @@
         <v>1</v>
       </c>
       <c r="D749">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="750">
@@ -10239,7 +10239,7 @@
         <v>1</v>
       </c>
       <c r="D752">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="753">
@@ -10252,7 +10252,7 @@
         <v>1</v>
       </c>
       <c r="D753">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="754">
@@ -10265,7 +10265,7 @@
         <v>1</v>
       </c>
       <c r="D754">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="755">
@@ -10278,7 +10278,7 @@
         <v>1</v>
       </c>
       <c r="D755">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="756">
@@ -10291,7 +10291,7 @@
         <v>1</v>
       </c>
       <c r="D756">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="757">
@@ -10304,20 +10304,20 @@
         <v>1</v>
       </c>
       <c r="D757">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="758">
       <c r="B758" t="inlineStr">
         <is>
-          <t>San Miguel el Grande</t>
+          <t>San Miguel El Grande</t>
         </is>
       </c>
       <c r="C758">
         <v>1</v>
       </c>
       <c r="D758">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="759">
@@ -10330,7 +10330,7 @@
         <v>1</v>
       </c>
       <c r="D759">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="760">
@@ -10356,7 +10356,7 @@
         <v>1</v>
       </c>
       <c r="D761">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="762">
@@ -10382,7 +10382,7 @@
         <v>1</v>
       </c>
       <c r="D763">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="764">
@@ -10408,7 +10408,7 @@
         <v>1</v>
       </c>
       <c r="D765">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="766">
@@ -10421,7 +10421,7 @@
         <v>1</v>
       </c>
       <c r="D766">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="767">
@@ -10434,20 +10434,20 @@
         <v>1</v>
       </c>
       <c r="D767">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="768">
       <c r="B768" t="inlineStr">
         <is>
-          <t>San Pedro el Alto</t>
+          <t>San Pedro El Alto</t>
         </is>
       </c>
       <c r="C768">
         <v>1</v>
       </c>
       <c r="D768">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="769">
@@ -10460,7 +10460,7 @@
         <v>1</v>
       </c>
       <c r="D769">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="770">
@@ -10473,7 +10473,7 @@
         <v>1</v>
       </c>
       <c r="D770">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="771">
@@ -10486,7 +10486,7 @@
         <v>1</v>
       </c>
       <c r="D771">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="772">
@@ -10551,7 +10551,7 @@
         <v>1</v>
       </c>
       <c r="D776">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="777">
@@ -10564,7 +10564,7 @@
         <v>1</v>
       </c>
       <c r="D777">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="778">
@@ -10577,7 +10577,7 @@
         <v>1</v>
       </c>
       <c r="D778">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="779">
@@ -10590,7 +10590,7 @@
         <v>1</v>
       </c>
       <c r="D779">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="780">
@@ -10616,7 +10616,7 @@
         <v>1</v>
       </c>
       <c r="D781">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="782">
@@ -10629,7 +10629,7 @@
         <v>1</v>
       </c>
       <c r="D782">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="783">
@@ -10655,7 +10655,7 @@
         <v>1</v>
       </c>
       <c r="D784">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="785">
@@ -10668,7 +10668,7 @@
         <v>1</v>
       </c>
       <c r="D785">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="786">
@@ -10681,7 +10681,7 @@
         <v>1</v>
       </c>
       <c r="D786">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="787">
@@ -10707,7 +10707,7 @@
         <v>1</v>
       </c>
       <c r="D788">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="789">
@@ -10733,7 +10733,7 @@
         <v>1</v>
       </c>
       <c r="D790">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="791">
@@ -10746,7 +10746,7 @@
         <v>1</v>
       </c>
       <c r="D791">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="792">
@@ -10811,7 +10811,7 @@
         <v>1</v>
       </c>
       <c r="D796">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="797">
@@ -10837,7 +10837,7 @@
         <v>1</v>
       </c>
       <c r="D798">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="799">
@@ -10902,7 +10902,7 @@
         <v>1</v>
       </c>
       <c r="D803">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="804">
@@ -10928,7 +10928,7 @@
         <v>1</v>
       </c>
       <c r="D805">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="806">
@@ -10954,7 +10954,7 @@
         <v>1</v>
       </c>
       <c r="D807">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="808">
@@ -10980,7 +10980,7 @@
         <v>1</v>
       </c>
       <c r="D809">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="810">
@@ -11032,7 +11032,7 @@
         <v>1</v>
       </c>
       <c r="D813">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="814">
@@ -11058,7 +11058,7 @@
         <v>1</v>
       </c>
       <c r="D815">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="816">
@@ -11136,7 +11136,7 @@
         <v>1</v>
       </c>
       <c r="D821">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="822">
@@ -11149,7 +11149,7 @@
         <v>1</v>
       </c>
       <c r="D822">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="823">
@@ -11162,7 +11162,7 @@
         <v>1</v>
       </c>
       <c r="D823">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="824">
@@ -11188,7 +11188,7 @@
         <v>1</v>
       </c>
       <c r="D825">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="826">
@@ -11201,7 +11201,7 @@
         <v>1</v>
       </c>
       <c r="D826">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="827">
@@ -11214,7 +11214,7 @@
         <v>1</v>
       </c>
       <c r="D827">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="828">
@@ -11253,13 +11253,13 @@
         <v>1</v>
       </c>
       <c r="D830">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="831">
       <c r="B831" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C831">
@@ -11279,7 +11279,7 @@
         <v>1</v>
       </c>
       <c r="D832">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="833">
@@ -11292,7 +11292,7 @@
         <v>1</v>
       </c>
       <c r="D833">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="834">
@@ -11331,7 +11331,7 @@
         <v>1</v>
       </c>
       <c r="D836">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="837">
@@ -11357,7 +11357,7 @@
         <v>1</v>
       </c>
       <c r="D838">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="839">
@@ -11383,13 +11383,13 @@
         <v>10</v>
       </c>
       <c r="D840">
-        <v>0.0009062896501721951</v>
+        <v>0.0009062896501721952</v>
       </c>
     </row>
     <row r="841">
       <c r="B841" t="inlineStr">
         <is>
-          <t>Tataltepec de Valdés</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C841">
@@ -11402,20 +11402,20 @@
     <row r="842">
       <c r="B842" t="inlineStr">
         <is>
-          <t>Teotitlán del Valle</t>
+          <t>Teotitlán Del Valle</t>
         </is>
       </c>
       <c r="C842">
         <v>1</v>
       </c>
       <c r="D842">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="843">
       <c r="B843" t="inlineStr">
         <is>
-          <t>Tepelmeme Villa de Morelos</t>
+          <t>Tepelmeme Villa De Morelos</t>
         </is>
       </c>
       <c r="C843">
@@ -11428,7 +11428,7 @@
     <row r="844">
       <c r="B844" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C844">
@@ -11441,7 +11441,7 @@
     <row r="845">
       <c r="B845" t="inlineStr">
         <is>
-          <t>Totontepec Villa de Morelos</t>
+          <t>Totontepec Villa De Morelos</t>
         </is>
       </c>
       <c r="C845">
@@ -11461,7 +11461,7 @@
         <v>1</v>
       </c>
       <c r="D846">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="847">
@@ -11474,13 +11474,13 @@
         <v>1</v>
       </c>
       <c r="D847">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="848">
       <c r="B848" t="inlineStr">
         <is>
-          <t>Villa de Etla</t>
+          <t>Villa De Etla</t>
         </is>
       </c>
       <c r="C848">
@@ -11493,20 +11493,20 @@
     <row r="849">
       <c r="B849" t="inlineStr">
         <is>
-          <t>Villa de Tamazulápam del Progreso</t>
+          <t>Villa De Tamazulápam Del Progreso</t>
         </is>
       </c>
       <c r="C849">
         <v>1</v>
       </c>
       <c r="D849">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="850">
       <c r="B850" t="inlineStr">
         <is>
-          <t>Villa de Tututepec de Melchor Ocampo</t>
+          <t>Villa De Tututepec De Melchor Ocampo</t>
         </is>
       </c>
       <c r="C850">
@@ -11519,20 +11519,20 @@
     <row r="851">
       <c r="B851" t="inlineStr">
         <is>
-          <t>Villa de Zaachila</t>
+          <t>Villa De Zaachila</t>
         </is>
       </c>
       <c r="C851">
         <v>1</v>
       </c>
       <c r="D851">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="852">
       <c r="B852" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C852">
@@ -11545,7 +11545,7 @@
     <row r="853">
       <c r="B853" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C853">
@@ -11635,7 +11635,7 @@
         <v>1</v>
       </c>
       <c r="D859">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="860">
@@ -11674,7 +11674,7 @@
         <v>1</v>
       </c>
       <c r="D862">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="863">
@@ -11700,20 +11700,20 @@
         <v>1</v>
       </c>
       <c r="D864">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="865">
       <c r="B865" t="inlineStr">
         <is>
-          <t>Ayotoxco de Guerrero</t>
+          <t>Ayotoxco De Guerrero</t>
         </is>
       </c>
       <c r="C865">
         <v>1</v>
       </c>
       <c r="D865">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="866">
@@ -11726,7 +11726,7 @@
         <v>1</v>
       </c>
       <c r="D866">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="867">
@@ -11745,14 +11745,14 @@
     <row r="868">
       <c r="B868" t="inlineStr">
         <is>
-          <t>Chalchicomula de Sesma</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C868">
         <v>1</v>
       </c>
       <c r="D868">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="869">
@@ -11830,13 +11830,13 @@
         <v>1</v>
       </c>
       <c r="D874">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="875">
       <c r="B875" t="inlineStr">
         <is>
-          <t>Chila de la Sal</t>
+          <t>Chila De La Sal</t>
         </is>
       </c>
       <c r="C875">
@@ -11856,7 +11856,7 @@
         <v>1</v>
       </c>
       <c r="D876">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="877">
@@ -11901,14 +11901,14 @@
     <row r="880">
       <c r="B880" t="inlineStr">
         <is>
-          <t>Cuapiaxtla de Madero</t>
+          <t>Cuapiaxtla De Madero</t>
         </is>
       </c>
       <c r="C880">
         <v>1</v>
       </c>
       <c r="D880">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="881">
@@ -11927,7 +11927,7 @@
     <row r="882">
       <c r="B882" t="inlineStr">
         <is>
-          <t>Cuayuca de Andrade</t>
+          <t>Cuayuca De Andrade</t>
         </is>
       </c>
       <c r="C882">
@@ -11940,7 +11940,7 @@
     <row r="883">
       <c r="B883" t="inlineStr">
         <is>
-          <t>Cuetzalan del Progreso</t>
+          <t>Cuetzalan Del Progreso</t>
         </is>
       </c>
       <c r="C883">
@@ -11960,7 +11960,7 @@
         <v>10</v>
       </c>
       <c r="D884">
-        <v>0.0009062896501721951</v>
+        <v>0.0009062896501721952</v>
       </c>
     </row>
     <row r="885">
@@ -11986,7 +11986,7 @@
         <v>1</v>
       </c>
       <c r="D886">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="887">
@@ -12051,7 +12051,7 @@
         <v>1</v>
       </c>
       <c r="D891">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="892">
@@ -12122,7 +12122,7 @@
     <row r="897">
       <c r="B897" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C897">
@@ -12155,7 +12155,7 @@
         <v>1</v>
       </c>
       <c r="D899">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="900">
@@ -12181,7 +12181,7 @@
         <v>1</v>
       </c>
       <c r="D901">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="902">
@@ -12200,7 +12200,7 @@
     <row r="903">
       <c r="B903" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C903">
@@ -12233,7 +12233,7 @@
         <v>1</v>
       </c>
       <c r="D905">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="906">
@@ -12246,7 +12246,7 @@
         <v>1</v>
       </c>
       <c r="D906">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="907">
@@ -12259,7 +12259,7 @@
         <v>1</v>
       </c>
       <c r="D907">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="908">
@@ -12272,7 +12272,7 @@
         <v>1</v>
       </c>
       <c r="D908">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="909">
@@ -12298,7 +12298,7 @@
         <v>1</v>
       </c>
       <c r="D910">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="911">
@@ -12311,7 +12311,7 @@
         <v>1</v>
       </c>
       <c r="D911">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="912">
@@ -12330,7 +12330,7 @@
     <row r="913">
       <c r="B913" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C913">
@@ -12402,7 +12402,7 @@
         <v>1</v>
       </c>
       <c r="D918">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="919">
@@ -12467,7 +12467,7 @@
         <v>1</v>
       </c>
       <c r="D923">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="924">
@@ -12525,7 +12525,7 @@
     <row r="928">
       <c r="B928" t="inlineStr">
         <is>
-          <t>San Salvador el Seco</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C928">
@@ -12538,7 +12538,7 @@
     <row r="929">
       <c r="B929" t="inlineStr">
         <is>
-          <t>San Salvador el Verde</t>
+          <t>San Salvador El Verde</t>
         </is>
       </c>
       <c r="C929">
@@ -12558,7 +12558,7 @@
         <v>1</v>
       </c>
       <c r="D930">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="931">
@@ -12584,13 +12584,13 @@
         <v>1</v>
       </c>
       <c r="D932">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="933">
       <c r="B933" t="inlineStr">
         <is>
-          <t>Tecali de Herrera</t>
+          <t>Tecali De Herrera</t>
         </is>
       </c>
       <c r="C933">
@@ -12610,7 +12610,7 @@
         <v>10</v>
       </c>
       <c r="D934">
-        <v>0.0009062896501721951</v>
+        <v>0.0009062896501721952</v>
       </c>
     </row>
     <row r="935">
@@ -12623,7 +12623,7 @@
         <v>1</v>
       </c>
       <c r="D935">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="936">
@@ -12688,20 +12688,20 @@
         <v>1</v>
       </c>
       <c r="D940">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="941">
       <c r="B941" t="inlineStr">
         <is>
-          <t>Tepanco de López</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C941">
         <v>1</v>
       </c>
       <c r="D941">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="942">
@@ -12714,7 +12714,7 @@
         <v>10</v>
       </c>
       <c r="D942">
-        <v>0.0009062896501721951</v>
+        <v>0.0009062896501721952</v>
       </c>
     </row>
     <row r="943">
@@ -12740,7 +12740,7 @@
         <v>1</v>
       </c>
       <c r="D944">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="945">
@@ -12759,7 +12759,7 @@
     <row r="946">
       <c r="B946" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C946">
@@ -12824,7 +12824,7 @@
     <row r="951">
       <c r="B951" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C951">
@@ -12870,7 +12870,7 @@
         <v>1</v>
       </c>
       <c r="D954">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="955">
@@ -12883,7 +12883,7 @@
         <v>1</v>
       </c>
       <c r="D955">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="956">
@@ -12948,7 +12948,7 @@
         <v>1</v>
       </c>
       <c r="D960">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="961">
@@ -13032,14 +13032,14 @@
     <row r="967">
       <c r="B967" t="inlineStr">
         <is>
-          <t>Xochitlán de Vicente Suárez</t>
+          <t>Xochitlán De Vicente Suárez</t>
         </is>
       </c>
       <c r="C967">
         <v>1</v>
       </c>
       <c r="D967">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="968">
@@ -13078,7 +13078,7 @@
         <v>1</v>
       </c>
       <c r="D970">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="971">
@@ -13117,7 +13117,7 @@
         <v>1</v>
       </c>
       <c r="D973">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="974">
@@ -13154,7 +13154,7 @@
       </c>
       <c r="B976" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C976">
@@ -13180,7 +13180,7 @@
     <row r="978">
       <c r="B978" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C978">
@@ -13213,7 +13213,7 @@
         <v>1</v>
       </c>
       <c r="D980">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="981">
@@ -13232,20 +13232,20 @@
     <row r="982">
       <c r="B982" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C982">
         <v>10</v>
       </c>
       <c r="D982">
-        <v>0.0009062896501721951</v>
+        <v>0.0009062896501721952</v>
       </c>
     </row>
     <row r="983">
       <c r="B983" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C983">
@@ -13265,13 +13265,13 @@
         <v>1</v>
       </c>
       <c r="D984">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="985">
       <c r="B985" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C985">
@@ -13297,7 +13297,7 @@
     <row r="987">
       <c r="B987" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C987">
@@ -13374,7 +13374,7 @@
         <v>10</v>
       </c>
       <c r="D992">
-        <v>0.0009062896501721951</v>
+        <v>0.0009062896501721952</v>
       </c>
     </row>
     <row r="993">
@@ -13405,7 +13405,7 @@
         <v>1</v>
       </c>
       <c r="D994">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="995">
@@ -13418,7 +13418,7 @@
         <v>1</v>
       </c>
       <c r="D995">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="996">
@@ -13444,7 +13444,7 @@
         <v>1</v>
       </c>
       <c r="D997">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="998">
@@ -13463,14 +13463,14 @@
     <row r="999">
       <c r="B999" t="inlineStr">
         <is>
-          <t>Cerro de San Pedro</t>
+          <t>Cerro De San Pedro</t>
         </is>
       </c>
       <c r="C999">
         <v>1</v>
       </c>
       <c r="D999">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="1000">
@@ -13489,7 +13489,7 @@
     <row r="1001">
       <c r="B1001" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C1001">
@@ -13535,7 +13535,7 @@
         <v>1</v>
       </c>
       <c r="D1004">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="1005">
@@ -13619,14 +13619,14 @@
     <row r="1011">
       <c r="B1011" t="inlineStr">
         <is>
-          <t>San Ciro de Acosta</t>
+          <t>San Ciro De Acosta</t>
         </is>
       </c>
       <c r="C1011">
         <v>1</v>
       </c>
       <c r="D1011">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="1012">
@@ -13652,13 +13652,13 @@
         <v>1</v>
       </c>
       <c r="D1013">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="1014">
       <c r="B1014" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C1014">
@@ -13678,13 +13678,13 @@
         <v>1</v>
       </c>
       <c r="D1015">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="1016">
       <c r="B1016" t="inlineStr">
         <is>
-          <t>Soledad de Graciano Sánchez</t>
+          <t>Soledad De Graciano Sánchez</t>
         </is>
       </c>
       <c r="C1016">
@@ -13704,7 +13704,7 @@
         <v>1</v>
       </c>
       <c r="D1017">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="1018">
@@ -13730,7 +13730,7 @@
         <v>1</v>
       </c>
       <c r="D1019">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="1020">
@@ -13743,7 +13743,7 @@
         <v>1</v>
       </c>
       <c r="D1020">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="1021">
@@ -13756,7 +13756,7 @@
         <v>1</v>
       </c>
       <c r="D1021">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="1022">
@@ -13769,7 +13769,7 @@
         <v>1</v>
       </c>
       <c r="D1022">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="1023">
@@ -13782,20 +13782,20 @@
         <v>1</v>
       </c>
       <c r="D1023">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="1024">
       <c r="B1024" t="inlineStr">
         <is>
-          <t>Tanquián de Escobedo</t>
+          <t>Tanquián De Escobedo</t>
         </is>
       </c>
       <c r="C1024">
         <v>1</v>
       </c>
       <c r="D1024">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="1025">
@@ -13808,7 +13808,7 @@
         <v>1</v>
       </c>
       <c r="D1025">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="1026">
@@ -13821,13 +13821,13 @@
         <v>1</v>
       </c>
       <c r="D1026">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="1027">
       <c r="B1027" t="inlineStr">
         <is>
-          <t>Villa de Arista</t>
+          <t>Villa De Arista</t>
         </is>
       </c>
       <c r="C1027">
@@ -13840,7 +13840,7 @@
     <row r="1028">
       <c r="B1028" t="inlineStr">
         <is>
-          <t>Villa de Arriaga</t>
+          <t>Villa De Arriaga</t>
         </is>
       </c>
       <c r="C1028">
@@ -13853,7 +13853,7 @@
     <row r="1029">
       <c r="B1029" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C1029">
@@ -13866,7 +13866,7 @@
     <row r="1030">
       <c r="B1030" t="inlineStr">
         <is>
-          <t>Villa de Reyes</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C1030">
@@ -13886,7 +13886,7 @@
         <v>1</v>
       </c>
       <c r="D1031">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="1032">
@@ -13912,7 +13912,7 @@
         <v>1</v>
       </c>
       <c r="D1033">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="1034">
@@ -13969,7 +13969,7 @@
         <v>1</v>
       </c>
       <c r="D1037">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="1038">
@@ -13995,7 +13995,7 @@
         <v>1</v>
       </c>
       <c r="D1039">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="1040">
@@ -14008,7 +14008,7 @@
         <v>1</v>
       </c>
       <c r="D1040">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="1041">
@@ -14117,7 +14117,7 @@
         <v>1</v>
       </c>
       <c r="D1048">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="1049">
@@ -14130,7 +14130,7 @@
         <v>1</v>
       </c>
       <c r="D1049">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="1050">
@@ -14188,14 +14188,14 @@
     <row r="1054">
       <c r="B1054" t="inlineStr">
         <is>
-          <t>Nacozari de García</t>
+          <t>Nacozari De García</t>
         </is>
       </c>
       <c r="C1054">
         <v>1</v>
       </c>
       <c r="D1054">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="1055">
@@ -14291,7 +14291,7 @@
         <v>1</v>
       </c>
       <c r="D1061">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="1062">
@@ -14375,14 +14375,14 @@
     <row r="1068">
       <c r="B1068" t="inlineStr">
         <is>
-          <t>Jalpa de Méndez</t>
+          <t>Jalpa De Méndez</t>
         </is>
       </c>
       <c r="C1068">
         <v>10</v>
       </c>
       <c r="D1068">
-        <v>0.0009062896501721951</v>
+        <v>0.0009062896501721952</v>
       </c>
     </row>
     <row r="1069">
@@ -14408,7 +14408,7 @@
         <v>1</v>
       </c>
       <c r="D1070">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="1071">
@@ -14421,7 +14421,7 @@
         <v>1</v>
       </c>
       <c r="D1071">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="1072">
@@ -14478,7 +14478,7 @@
         <v>1</v>
       </c>
       <c r="D1075">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="1076">
@@ -14491,7 +14491,7 @@
         <v>1</v>
       </c>
       <c r="D1076">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="1077">
@@ -14504,7 +14504,7 @@
         <v>1</v>
       </c>
       <c r="D1077">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="1078">
@@ -14543,7 +14543,7 @@
         <v>1</v>
       </c>
       <c r="D1080">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="1081">
@@ -14556,7 +14556,7 @@
         <v>1</v>
       </c>
       <c r="D1081">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="1082">
@@ -14569,7 +14569,7 @@
         <v>1</v>
       </c>
       <c r="D1082">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="1083">
@@ -14595,7 +14595,7 @@
         <v>1</v>
       </c>
       <c r="D1084">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="1085">
@@ -14608,7 +14608,7 @@
         <v>1</v>
       </c>
       <c r="D1085">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="1086">
@@ -14634,7 +14634,7 @@
         <v>1</v>
       </c>
       <c r="D1087">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="1088">
@@ -14692,14 +14692,14 @@
     <row r="1092">
       <c r="B1092" t="inlineStr">
         <is>
-          <t>Soto la Marina</t>
+          <t>Soto La Marina</t>
         </is>
       </c>
       <c r="C1092">
         <v>1</v>
       </c>
       <c r="D1092">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="1093">
@@ -14764,7 +14764,7 @@
         <v>1</v>
       </c>
       <c r="D1097">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="1098">
@@ -14821,7 +14821,7 @@
         <v>1</v>
       </c>
       <c r="D1101">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="1102">
@@ -14853,14 +14853,14 @@
     <row r="1104">
       <c r="B1104" t="inlineStr">
         <is>
-          <t>Contla de Juan Cuamatzi</t>
+          <t>Contla De Juan Cuamatzi</t>
         </is>
       </c>
       <c r="C1104">
         <v>1</v>
       </c>
       <c r="D1104">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="1105">
@@ -14873,7 +14873,7 @@
         <v>1</v>
       </c>
       <c r="D1105">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="1106">
@@ -14886,7 +14886,7 @@
         <v>1</v>
       </c>
       <c r="D1106">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="1107">
@@ -14918,7 +14918,7 @@
     <row r="1109">
       <c r="B1109" t="inlineStr">
         <is>
-          <t>Ixtacuixtla de Mariano Matamoros</t>
+          <t>Ixtacuixtla De Mariano Matamoros</t>
         </is>
       </c>
       <c r="C1109">
@@ -14938,7 +14938,7 @@
         <v>1</v>
       </c>
       <c r="D1110">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="1111">
@@ -14951,7 +14951,7 @@
         <v>10</v>
       </c>
       <c r="D1111">
-        <v>0.0009062896501721951</v>
+        <v>0.0009062896501721952</v>
       </c>
     </row>
     <row r="1112">
@@ -14977,13 +14977,13 @@
         <v>1</v>
       </c>
       <c r="D1113">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="1114">
       <c r="B1114" t="inlineStr">
         <is>
-          <t>San Pablo del Monte</t>
+          <t>San Pablo Del Monte</t>
         </is>
       </c>
       <c r="C1114">
@@ -15016,13 +15016,13 @@
         <v>1</v>
       </c>
       <c r="D1116">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="1117">
       <c r="B1117" t="inlineStr">
         <is>
-          <t>Tepetitla de Lardizábal</t>
+          <t>Tepetitla De Lardizábal</t>
         </is>
       </c>
       <c r="C1117">
@@ -15055,7 +15055,7 @@
         <v>1</v>
       </c>
       <c r="D1119">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="1120">
@@ -15120,7 +15120,7 @@
         <v>1</v>
       </c>
       <c r="D1124">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="1125">
@@ -15133,7 +15133,7 @@
         <v>1</v>
       </c>
       <c r="D1125">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="1126">
@@ -15164,7 +15164,7 @@
         <v>1</v>
       </c>
       <c r="D1127">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="1128">
@@ -15177,7 +15177,7 @@
         <v>1</v>
       </c>
       <c r="D1128">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="1129">
@@ -15216,7 +15216,7 @@
         <v>1</v>
       </c>
       <c r="D1131">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="1132">
@@ -15229,13 +15229,13 @@
         <v>1</v>
       </c>
       <c r="D1132">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="1133">
       <c r="B1133" t="inlineStr">
         <is>
-          <t>Alto Lucero de Gutiérrez Barrios</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C1133">
@@ -15274,7 +15274,7 @@
     <row r="1136">
       <c r="B1136" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C1136">
@@ -15307,7 +15307,7 @@
         <v>1</v>
       </c>
       <c r="D1138">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="1139">
@@ -15352,7 +15352,7 @@
     <row r="1142">
       <c r="B1142" t="inlineStr">
         <is>
-          <t>Boca del Río</t>
+          <t>Boca Del Río</t>
         </is>
       </c>
       <c r="C1142">
@@ -15372,7 +15372,7 @@
         <v>1</v>
       </c>
       <c r="D1143">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="1144">
@@ -15385,13 +15385,13 @@
         <v>1</v>
       </c>
       <c r="D1144">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="1145">
       <c r="B1145" t="inlineStr">
         <is>
-          <t>Castillo de Teayo</t>
+          <t>Castillo De Teayo</t>
         </is>
       </c>
       <c r="C1145">
@@ -15417,7 +15417,7 @@
     <row r="1147">
       <c r="B1147" t="inlineStr">
         <is>
-          <t>Cazones de Herrera</t>
+          <t>Cazones De Herrera</t>
         </is>
       </c>
       <c r="C1147">
@@ -15437,7 +15437,7 @@
         <v>1</v>
       </c>
       <c r="D1148">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="1149">
@@ -15450,7 +15450,7 @@
         <v>1</v>
       </c>
       <c r="D1149">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="1150">
@@ -15502,7 +15502,7 @@
         <v>1</v>
       </c>
       <c r="D1153">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="1154">
@@ -15515,7 +15515,7 @@
         <v>1</v>
       </c>
       <c r="D1154">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="1155">
@@ -15541,7 +15541,7 @@
         <v>1</v>
       </c>
       <c r="D1156">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="1157">
@@ -15580,7 +15580,7 @@
         <v>1</v>
       </c>
       <c r="D1159">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="1160">
@@ -15606,7 +15606,7 @@
         <v>1</v>
       </c>
       <c r="D1161">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="1162">
@@ -15625,7 +15625,7 @@
     <row r="1163">
       <c r="B1163" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C1163">
@@ -15638,7 +15638,7 @@
     <row r="1164">
       <c r="B1164" t="inlineStr">
         <is>
-          <t>Cosautlán de Carvajal</t>
+          <t>Cosautlán De Carvajal</t>
         </is>
       </c>
       <c r="C1164">
@@ -15671,7 +15671,7 @@
         <v>1</v>
       </c>
       <c r="D1166">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="1167">
@@ -15723,7 +15723,7 @@
         <v>1</v>
       </c>
       <c r="D1170">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="1171">
@@ -15736,7 +15736,7 @@
         <v>1</v>
       </c>
       <c r="D1171">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="1172">
@@ -15749,7 +15749,7 @@
         <v>1</v>
       </c>
       <c r="D1172">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="1173">
@@ -15820,7 +15820,7 @@
     <row r="1178">
       <c r="B1178" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C1178">
@@ -15833,14 +15833,14 @@
     <row r="1179">
       <c r="B1179" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C1179">
         <v>1</v>
       </c>
       <c r="D1179">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="1180">
@@ -15853,7 +15853,7 @@
         <v>1</v>
       </c>
       <c r="D1180">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="1181">
@@ -15872,7 +15872,7 @@
     <row r="1182">
       <c r="B1182" t="inlineStr">
         <is>
-          <t>Ixhuatlán de Madero</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C1182">
@@ -15931,7 +15931,7 @@
         <v>1</v>
       </c>
       <c r="D1186">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="1187">
@@ -15989,7 +15989,7 @@
     <row r="1191">
       <c r="B1191" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C1191">
@@ -16028,7 +16028,7 @@
     <row r="1194">
       <c r="B1194" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C1194">
@@ -16054,7 +16054,7 @@
     <row r="1196">
       <c r="B1196" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C1196">
@@ -16080,7 +16080,7 @@
     <row r="1198">
       <c r="B1198" t="inlineStr">
         <is>
-          <t>Medellín de Bravo</t>
+          <t>Medellín De Bravo</t>
         </is>
       </c>
       <c r="C1198">
@@ -16178,7 +16178,7 @@
         <v>1</v>
       </c>
       <c r="D1205">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="1206">
@@ -16191,7 +16191,7 @@
         <v>1</v>
       </c>
       <c r="D1206">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="1207">
@@ -16223,14 +16223,14 @@
     <row r="1209">
       <c r="B1209" t="inlineStr">
         <is>
-          <t>Ozuluama de Mascareñas</t>
+          <t>Ozuluama De Mascareñas</t>
         </is>
       </c>
       <c r="C1209">
         <v>1</v>
       </c>
       <c r="D1209">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="1210">
@@ -16275,7 +16275,7 @@
     <row r="1213">
       <c r="B1213" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C1213">
@@ -16288,14 +16288,14 @@
     <row r="1214">
       <c r="B1214" t="inlineStr">
         <is>
-          <t>Paso del Macho</t>
+          <t>Paso Del Macho</t>
         </is>
       </c>
       <c r="C1214">
         <v>1</v>
       </c>
       <c r="D1214">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="1215">
@@ -16308,7 +16308,7 @@
         <v>1</v>
       </c>
       <c r="D1215">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="1216">
@@ -16321,7 +16321,7 @@
         <v>1</v>
       </c>
       <c r="D1216">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="1217">
@@ -16340,7 +16340,7 @@
     <row r="1218">
       <c r="B1218" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C1218">
@@ -16373,7 +16373,7 @@
         <v>1</v>
       </c>
       <c r="D1220">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="1221">
@@ -16418,7 +16418,7 @@
     <row r="1224">
       <c r="B1224" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C1224">
@@ -16438,7 +16438,7 @@
         <v>1</v>
       </c>
       <c r="D1225">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="1226">
@@ -16451,20 +16451,20 @@
         <v>1</v>
       </c>
       <c r="D1226">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="1227">
       <c r="B1227" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C1227">
         <v>1</v>
       </c>
       <c r="D1227">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="1228">
@@ -16477,20 +16477,20 @@
         <v>1</v>
       </c>
       <c r="D1228">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="1229">
       <c r="B1229" t="inlineStr">
         <is>
-          <t>Tatahuicapan de Juárez</t>
+          <t>Tatahuicapan De Juárez</t>
         </is>
       </c>
       <c r="C1229">
         <v>1</v>
       </c>
       <c r="D1229">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="1230">
@@ -16555,7 +16555,7 @@
         <v>1</v>
       </c>
       <c r="D1234">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="1235">
@@ -16665,14 +16665,14 @@
     <row r="1243">
       <c r="B1243" t="inlineStr">
         <is>
-          <t>Tlacotepec de Mejía</t>
+          <t>Tlacotepec De Mejía</t>
         </is>
       </c>
       <c r="C1243">
         <v>1</v>
       </c>
       <c r="D1243">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="1244">
@@ -16698,7 +16698,7 @@
         <v>1</v>
       </c>
       <c r="D1245">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="1246">
@@ -16724,7 +16724,7 @@
         <v>1</v>
       </c>
       <c r="D1247">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="1248">
@@ -16750,7 +16750,7 @@
         <v>1</v>
       </c>
       <c r="D1249">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="1250">
@@ -16782,7 +16782,7 @@
     <row r="1252">
       <c r="B1252" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C1252">
@@ -16854,7 +16854,7 @@
         <v>1</v>
       </c>
       <c r="D1257">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="1258">
@@ -16867,20 +16867,20 @@
         <v>1</v>
       </c>
       <c r="D1258">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="1259">
       <c r="B1259" t="inlineStr">
         <is>
-          <t>Zontecomatlán de López y Fuentes</t>
+          <t>Zontecomatlán De López Y Fuentes</t>
         </is>
       </c>
       <c r="C1259">
         <v>1</v>
       </c>
       <c r="D1259">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="1260">
@@ -16911,7 +16911,7 @@
         <v>1</v>
       </c>
       <c r="D1261">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="1262">
@@ -16950,7 +16950,7 @@
         <v>1</v>
       </c>
       <c r="D1264">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="1265">
@@ -16981,7 +16981,7 @@
         <v>1</v>
       </c>
       <c r="D1266">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="1267">
@@ -17020,7 +17020,7 @@
         <v>1</v>
       </c>
       <c r="D1269">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="1270">
@@ -17033,33 +17033,33 @@
         <v>1</v>
       </c>
       <c r="D1270">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="1271">
       <c r="B1271" t="inlineStr">
         <is>
-          <t>Concepción del Oro</t>
+          <t>Concepción Del Oro</t>
         </is>
       </c>
       <c r="C1271">
         <v>1</v>
       </c>
       <c r="D1271">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="1272">
       <c r="B1272" t="inlineStr">
         <is>
-          <t>El Plateado de Joaquín Amaro</t>
+          <t>El Plateado De Joaquín Amaro</t>
         </is>
       </c>
       <c r="C1272">
         <v>1</v>
       </c>
       <c r="D1272">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="1273">
@@ -17085,7 +17085,7 @@
         <v>1</v>
       </c>
       <c r="D1274">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="1275">
@@ -17254,7 +17254,7 @@
         <v>10</v>
       </c>
       <c r="D1287">
-        <v>0.0009062896501721951</v>
+        <v>0.0009062896501721952</v>
       </c>
     </row>
     <row r="1288">
@@ -17273,7 +17273,7 @@
     <row r="1289">
       <c r="B1289" t="inlineStr">
         <is>
-          <t>Moyahua de Estrada</t>
+          <t>Moyahua De Estrada</t>
         </is>
       </c>
       <c r="C1289">
@@ -17286,7 +17286,7 @@
     <row r="1290">
       <c r="B1290" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C1290">
@@ -17299,7 +17299,7 @@
     <row r="1291">
       <c r="B1291" t="inlineStr">
         <is>
-          <t>Noria de Ángeles</t>
+          <t>Noria De Ángeles</t>
         </is>
       </c>
       <c r="C1291">
@@ -17319,7 +17319,7 @@
         <v>1</v>
       </c>
       <c r="D1292">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="1293">
@@ -17332,7 +17332,7 @@
         <v>1</v>
       </c>
       <c r="D1293">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="1294">
@@ -17429,7 +17429,7 @@
     <row r="1301">
       <c r="B1301" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C1301">
@@ -17449,7 +17449,7 @@
         <v>1</v>
       </c>
       <c r="D1302">
-        <v>9.062896501721951E-05</v>
+        <v>9.062896501721952E-05</v>
       </c>
     </row>
     <row r="1303">
@@ -17468,7 +17468,7 @@
     <row r="1304">
       <c r="B1304" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C1304">
@@ -17554,41 +17554,6 @@
       </c>
       <c r="D1310">
         <v>1</v>
-      </c>
-    </row>
-    <row r="1312">
-      <c r="A1312" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 701,861</t>
-        </is>
-      </c>
-    </row>
-    <row r="1313">
-      <c r="A1313" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1314">
-      <c r="A1314" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="1315">
-      <c r="A1315" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="1316">
-      <c r="A1316" t="inlineStr">
-        <is>
-          <t>Mayo de 2022</t>
-        </is>
       </c>
     </row>
   </sheetData>
